--- a/env/Check Scheduling Input.xlsx
+++ b/env/Check Scheduling Input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F47461-352A-45E1-A170-F503DF153E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132A2711-3B48-4D44-9ED9-13D17179CDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="911" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="911" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DESCRIPTION" sheetId="17" r:id="rId1"/>
@@ -15843,7 +15843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="H52" sqref="H2:H52"/>
     </sheetView>
   </sheetViews>
@@ -23107,8 +23107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
